--- a/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -211,18 +211,6 @@
   </si>
   <si>
     <t>9840055664</t>
-  </si>
-  <si>
-    <t>9840064794</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840000613</t>
-  </si>
-  <si>
-    <t>9840088085</t>
   </si>
   <si>
     <t>WebFormId</t>
@@ -244,7 +232,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,142 +566,142 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" customWidth="true" width="14.26953125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" customWidth="1"/>
+    <col min="28" max="28" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.26953125" customWidth="1"/>
+    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -728,13 +715,13 @@
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -743,73 +730,73 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s" s="0">
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" t="s" s="0">
+      <c r="AB2" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" t="s" s="0">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s" s="0">
+      <c r="AD2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="0">
+      <c r="AE2">
         <v>131</v>
       </c>
     </row>
@@ -823,13 +810,13 @@
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1122334455</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -838,25 +825,25 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="AC3" t="s" s="0">
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" t="s" s="0">
+      <c r="AD3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -870,14 +857,14 @@
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>69</v>
+      <c r="F4" t="s">
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -885,25 +872,25 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>51</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" t="s" s="0">
+      <c r="AC4" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" t="s" s="0">
+      <c r="AD4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -917,13 +904,13 @@
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1243213423</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -932,25 +919,25 @@
       <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="AC5" t="s" s="0">
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" t="s" s="0">
+      <c r="AD5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -964,13 +951,13 @@
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4567547656</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -979,25 +966,25 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="AC6" t="s" s="0">
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" t="s" s="0">
+      <c r="AD6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1011,14 +998,14 @@
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>71</v>
+      <c r="F7" t="s">
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1026,25 +1013,25 @@
       <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" t="s" s="0">
+      <c r="AC7" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" t="s" s="0">
+      <c r="AD7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1058,13 +1045,13 @@
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>7890870979</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1073,25 +1060,25 @@
       <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="AC8" t="s" s="0">
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="s">
         <v>56</v>
       </c>
-      <c r="AD8" t="s" s="0">
+      <c r="AD8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1105,13 +1092,13 @@
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>7890870980</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1120,25 +1107,25 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="AC9" t="s" s="0">
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" t="s" s="0">
+      <c r="AD9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1152,14 +1139,14 @@
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>72</v>
+      <c r="F10" t="s">
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1167,25 +1154,25 @@
       <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>52</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
-      <c r="AC10" t="s" s="0">
+      <c r="AC10" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" t="s" s="0">
+      <c r="AD10" t="s">
         <v>61</v>
       </c>
     </row>

--- a/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -226,12 +226,43 @@
   </si>
   <si>
     <t>9840035614</t>
+  </si>
+  <si>
+    <t>9840097493</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840043807</t>
+  </si>
+  <si>
+    <t>9840054376</t>
+  </si>
+  <si>
+    <t>9840064031</t>
+  </si>
+  <si>
+    <t>9840047647</t>
+  </si>
+  <si>
+    <t>9840058345</t>
+  </si>
+  <si>
+    <t>9840006176</t>
+  </si>
+  <si>
+    <t>9840006871</t>
+  </si>
+  <si>
+    <t>9840011302</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,137 +602,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
-    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" customWidth="1"/>
-    <col min="28" max="28" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.26953125" customWidth="1"/>
-    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="17" max="17" customWidth="true" width="10.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="20" max="20" customWidth="true" width="10.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="23" max="23" customWidth="true" width="10.54296875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="27" max="27" customWidth="true" width="17.81640625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="31" max="31" customWidth="true" width="14.26953125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>22</v>
       </c>
     </row>
@@ -715,14 +746,14 @@
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
+      <c r="F2" t="s" s="0">
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -730,73 +761,73 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="Z2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="0">
         <v>131</v>
       </c>
     </row>
@@ -810,14 +841,14 @@
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>1122334455</v>
+      <c r="F3" t="s" s="0">
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -825,25 +856,25 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -857,14 +888,14 @@
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>65</v>
+      <c r="F4" t="s" s="0">
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -872,25 +903,25 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" t="s" s="0">
         <v>59</v>
       </c>
     </row>
@@ -904,14 +935,14 @@
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1243213423</v>
+      <c r="F5" t="s" s="0">
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -919,25 +950,25 @@
       <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" t="s" s="0">
         <v>60</v>
       </c>
     </row>
@@ -951,14 +982,14 @@
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>4567547656</v>
+      <c r="F6" t="s" s="0">
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -966,25 +997,25 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" t="s" s="0">
         <v>61</v>
       </c>
     </row>
@@ -998,14 +1029,14 @@
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
+      <c r="F7" t="s" s="0">
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1013,25 +1044,25 @@
       <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1045,14 +1076,14 @@
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8">
-        <v>7890870979</v>
+      <c r="F8" t="s" s="0">
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1060,25 +1091,25 @@
       <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" t="s" s="0">
         <v>59</v>
       </c>
     </row>
@@ -1092,14 +1123,14 @@
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9">
-        <v>7890870980</v>
+      <c r="F9" t="s" s="0">
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1107,25 +1138,25 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" t="s" s="0">
         <v>60</v>
       </c>
     </row>
@@ -1139,14 +1170,14 @@
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>68</v>
+      <c r="F10" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1154,25 +1185,25 @@
       <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" t="s" s="0">
         <v>61</v>
       </c>
     </row>

--- a/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="88">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -256,6 +256,33 @@
   </si>
   <si>
     <t>9840011302</t>
+  </si>
+  <si>
+    <t>9840063270</t>
+  </si>
+  <si>
+    <t>9840094727</t>
+  </si>
+  <si>
+    <t>9840067484</t>
+  </si>
+  <si>
+    <t>9840094077</t>
+  </si>
+  <si>
+    <t>9840028237</t>
+  </si>
+  <si>
+    <t>9840023088</t>
+  </si>
+  <si>
+    <t>9840093374</t>
+  </si>
+  <si>
+    <t>9840081913</t>
+  </si>
+  <si>
+    <t>9840039577</t>
   </si>
 </sst>
 </file>
@@ -753,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -813,7 +840,7 @@
         <v>43</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>33</v>
@@ -848,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -895,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -942,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -989,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1036,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1083,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1130,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1177,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>

--- a/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="97">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -283,6 +283,33 @@
   </si>
   <si>
     <t>9840039577</t>
+  </si>
+  <si>
+    <t>9840096877</t>
+  </si>
+  <si>
+    <t>9840039096</t>
+  </si>
+  <si>
+    <t>9840016863</t>
+  </si>
+  <si>
+    <t>9840062881</t>
+  </si>
+  <si>
+    <t>9840020366</t>
+  </si>
+  <si>
+    <t>9840057793</t>
+  </si>
+  <si>
+    <t>9840026880</t>
+  </si>
+  <si>
+    <t>9840091172</t>
+  </si>
+  <si>
+    <t>9840009988</t>
   </si>
 </sst>
 </file>
@@ -780,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -840,7 +867,7 @@
         <v>43</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>33</v>
@@ -875,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -922,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -969,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1016,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1063,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1110,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1157,7 +1184,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1204,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>

--- a/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC002_WF_RRUserYN_NoCondition_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -210,106 +210,46 @@
     <t>WF_RRUserYN_NoCondition</t>
   </si>
   <si>
-    <t>9840055664</t>
-  </si>
-  <si>
     <t>WebFormId</t>
   </si>
   <si>
-    <t>9840003286</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840021007</t>
-  </si>
-  <si>
-    <t>9840035614</t>
-  </si>
-  <si>
-    <t>9840097493</t>
+    <t>9840062881</t>
+  </si>
+  <si>
+    <t>9840020366</t>
+  </si>
+  <si>
+    <t>9840026880</t>
+  </si>
+  <si>
+    <t>9840091172</t>
+  </si>
+  <si>
+    <t>9840009988</t>
+  </si>
+  <si>
+    <t>9840067463</t>
+  </si>
+  <si>
+    <t>9840086221</t>
+  </si>
+  <si>
+    <t>9840009037</t>
+  </si>
+  <si>
+    <t>9840082476</t>
+  </si>
+  <si>
+    <t>9840002771</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840058670</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>9840043807</t>
-  </si>
-  <si>
-    <t>9840054376</t>
-  </si>
-  <si>
-    <t>9840064031</t>
-  </si>
-  <si>
-    <t>9840047647</t>
-  </si>
-  <si>
-    <t>9840058345</t>
-  </si>
-  <si>
-    <t>9840006176</t>
-  </si>
-  <si>
-    <t>9840006871</t>
-  </si>
-  <si>
-    <t>9840011302</t>
-  </si>
-  <si>
-    <t>9840063270</t>
-  </si>
-  <si>
-    <t>9840094727</t>
-  </si>
-  <si>
-    <t>9840067484</t>
-  </si>
-  <si>
-    <t>9840094077</t>
-  </si>
-  <si>
-    <t>9840028237</t>
-  </si>
-  <si>
-    <t>9840023088</t>
-  </si>
-  <si>
-    <t>9840093374</t>
-  </si>
-  <si>
-    <t>9840081913</t>
-  </si>
-  <si>
-    <t>9840039577</t>
-  </si>
-  <si>
-    <t>9840096877</t>
-  </si>
-  <si>
-    <t>9840039096</t>
-  </si>
-  <si>
-    <t>9840016863</t>
-  </si>
-  <si>
-    <t>9840062881</t>
-  </si>
-  <si>
-    <t>9840020366</t>
-  </si>
-  <si>
-    <t>9840057793</t>
-  </si>
-  <si>
-    <t>9840026880</t>
-  </si>
-  <si>
-    <t>9840091172</t>
-  </si>
-  <si>
-    <t>9840009988</t>
   </si>
 </sst>
 </file>
@@ -372,7 +312,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -650,46 +601,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7109375"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" customWidth="true" width="14.26953125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="17" max="17" customWidth="true" width="10.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="20" max="20" customWidth="true" width="10.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.85546875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="27" max="27" customWidth="true" width="17.85546875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="22.28515625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="31" max="31" customWidth="true" width="14.28515625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -781,7 +732,7 @@
         <v>55</v>
       </c>
       <c r="AE1" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF1" t="s" s="0">
         <v>21</v>
@@ -790,7 +741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -807,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -828,46 +779,46 @@
         <v>49</v>
       </c>
       <c r="M2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="P2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="S2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="X2" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>43</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>33</v>
@@ -885,7 +836,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -902,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -923,7 +874,7 @@
         <v>50</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC3" t="s" s="0">
         <v>56</v>
@@ -932,7 +883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -949,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -970,7 +921,7 @@
         <v>51</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>56</v>
@@ -979,7 +930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -996,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1017,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>56</v>
@@ -1026,7 +977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1064,7 +1015,7 @@
         <v>53</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC6" t="s" s="0">
         <v>56</v>
@@ -1073,7 +1024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1041,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1120,7 +1071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1158,7 +1109,7 @@
         <v>50</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC8" t="s" s="0">
         <v>56</v>
@@ -1167,7 +1118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1184,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1205,7 +1156,7 @@
         <v>51</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC9" t="s" s="0">
         <v>56</v>
@@ -1214,7 +1165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1231,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1252,7 +1203,7 @@
         <v>52</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>56</v>
@@ -1262,6 +1213,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="T2:V2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
